--- a/src/assets/Test-Reporte_Elanco/nuevas/Ceres_alimento.xlsx
+++ b/src/assets/Test-Reporte_Elanco/nuevas/Ceres_alimento.xlsx
@@ -1,266 +1,274 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catta\Documents\COMPSCI\repos\elanco-infome-imvixa\src\assets\Test-Reporte_Elanco\nuevas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910766A5-DDCF-41E4-AF7E-57B9EFAD5252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView minimized="1" xWindow="19530" yWindow="6120" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">company_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hatchery_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cantidad_programada_por_receta_kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cumplimiento_logrado_intentado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_de_muestras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">planta_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecha_de_fabricacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reportado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planta_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planta_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planta_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reportado - No considerar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-chequeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planta_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piscultura_55</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="83">
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>company_code</t>
+  </si>
+  <si>
+    <t>hatchery_code</t>
+  </si>
+  <si>
+    <t>cantidad_programada_por_receta_kg</t>
+  </si>
+  <si>
+    <t>cumplimiento_logrado_intentado</t>
+  </si>
+  <si>
+    <t>n_de_muestras</t>
+  </si>
+  <si>
+    <t>planta_code</t>
+  </si>
+  <si>
+    <t>fecha_de_fabricacion</t>
+  </si>
+  <si>
+    <t>Reportado</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>Piscultura_96</t>
+  </si>
+  <si>
+    <t>Planta_3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Piscultura_53</t>
+  </si>
+  <si>
+    <t>Planta_1</t>
+  </si>
+  <si>
+    <t>Piscultura_91</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>Piscultura_109</t>
+  </si>
+  <si>
+    <t>Planta_2</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Piscultura_11</t>
+  </si>
+  <si>
+    <t>Piscultura_12</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Piscultura_5</t>
+  </si>
+  <si>
+    <t>Reportado - No considerar</t>
+  </si>
+  <si>
+    <t>Piscultura_46</t>
+  </si>
+  <si>
+    <t>Piscultura_66</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Piscultura_7</t>
+  </si>
+  <si>
+    <t>Piscultura_41</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Piscultura_85</t>
+  </si>
+  <si>
+    <t>Re-chequeo</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Piscultura_40</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>Piscultura_110</t>
+  </si>
+  <si>
+    <t>Piscultura_111</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Piscultura_10</t>
+  </si>
+  <si>
+    <t>Piscultura_2</t>
+  </si>
+  <si>
+    <t>Piscultura_68</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Piscultura_112</t>
+  </si>
+  <si>
+    <t>Piscultura_67</t>
+  </si>
+  <si>
+    <t>Piscultura_105</t>
+  </si>
+  <si>
+    <t>Piscultura_42</t>
+  </si>
+  <si>
+    <t>Piscultura_79</t>
+  </si>
+  <si>
+    <t>Piscultura_52</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>Piscultura_13</t>
+  </si>
+  <si>
+    <t>Planta_4</t>
+  </si>
+  <si>
+    <t>Piscultura_70</t>
+  </si>
+  <si>
+    <t>Piscultura_32</t>
+  </si>
+  <si>
+    <t>Piscultura_113</t>
+  </si>
+  <si>
+    <t>Piscultura_78</t>
+  </si>
+  <si>
+    <t>Piscultura_34</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>Piscultura_1</t>
+  </si>
+  <si>
+    <t>Piscultura_114</t>
+  </si>
+  <si>
+    <t>Piscultura_20</t>
+  </si>
+  <si>
+    <t>Piscultura_88</t>
+  </si>
+  <si>
+    <t>Piscultura_115</t>
+  </si>
+  <si>
+    <t>Piscultura_65</t>
+  </si>
+  <si>
+    <t>Piscultura_14</t>
+  </si>
+  <si>
+    <t>Piscultura_61</t>
+  </si>
+  <si>
+    <t>Piscultura_77</t>
+  </si>
+  <si>
+    <t>Piscultura_47</t>
+  </si>
+  <si>
+    <t>Piscultura_92</t>
+  </si>
+  <si>
+    <t>Piscultura_84</t>
+  </si>
+  <si>
+    <t>Piscultura_82</t>
+  </si>
+  <si>
+    <t>Piscultura_9</t>
+  </si>
+  <si>
+    <t>Piscultura_95</t>
+  </si>
+  <si>
+    <t>Piscultura_104</t>
+  </si>
+  <si>
+    <t>Piscultura_116</t>
+  </si>
+  <si>
+    <t>Piscultura_117</t>
+  </si>
+  <si>
+    <t>Piscultura_43</t>
+  </si>
+  <si>
+    <t>Piscultura_97</t>
+  </si>
+  <si>
+    <t>Piscultura_39</t>
+  </si>
+  <si>
+    <t>Piscultura_71</t>
+  </si>
+  <si>
+    <t>Piscultura_69</t>
+  </si>
+  <si>
+    <t>Piscultura_55</t>
   </si>
 </sst>
 </file>
@@ -268,9 +276,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -279,15 +287,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -318,12 +328,21 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -605,24 +624,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="12.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="33.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="30.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="13.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="20.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -658,21 +679,20 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" t="n">
-        <v>0.901242236024845</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>0.90124223602484499</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>43997</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -682,23 +702,23 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>19500</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.9377</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>43998</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -708,23 +728,23 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>8125</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.99578125</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>0.99578124999999995</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>44009</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -734,23 +754,23 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>13975</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.9885</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>44009</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -760,23 +780,23 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1274</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.97025</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>0.97024999999999995</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>44009</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -786,23 +806,23 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>5239</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.955105633802817</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>0.95510563380281699</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -812,23 +832,23 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>5330</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.976428571428571</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0.97642857142857098</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>44009</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -838,23 +858,23 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>8125</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.980625</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>0.98062499999999997</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>44009</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -864,23 +884,23 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1781</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.96484375</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>44014</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -890,23 +910,23 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>5070</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.977265625</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>0.97726562500000003</v>
+      </c>
+      <c r="F11">
         <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>44014</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -916,23 +936,23 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>7475</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.999765625</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>0.99976562499999999</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>44018</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -942,23 +962,23 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2015</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.964880952380952</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>0.96488095238095195</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>44018</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -968,23 +988,23 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>19500</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.7985</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>44025</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -994,23 +1014,23 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>9343.75</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1.0948</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>4</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>44025</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1020,23 +1040,23 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>7592</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.9925</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="F16">
         <v>4</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="2">
         <v>44030</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1046,23 +1066,23 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2340</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.939074074074074</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17">
+        <v>0.93907407407407395</v>
+      </c>
+      <c r="F17">
         <v>4</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2">
         <v>44030</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1072,23 +1092,23 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>5460</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.984444444444444</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18">
+        <v>0.98444444444444401</v>
+      </c>
+      <c r="F18">
         <v>4</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>44030</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1098,23 +1118,23 @@
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>5460</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.947962962962963</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E19">
+        <v>0.94796296296296301</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>44030</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1124,23 +1144,23 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>2340</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.935555555555556</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E20">
+        <v>0.93555555555555603</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>44030</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1150,23 +1170,23 @@
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>6012.5</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.961833333333333</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E21">
+        <v>0.96183333333333298</v>
+      </c>
+      <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2">
         <v>44036</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1176,23 +1196,23 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>975</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.98422619047619</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E22">
+        <v>0.98422619047618998</v>
+      </c>
+      <c r="F22">
         <v>4</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>44036</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1202,23 +1222,23 @@
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>520</v>
       </c>
-      <c r="E23" t="n">
-        <v>1.05305555555556</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23">
+        <v>1.0530555555555601</v>
+      </c>
+      <c r="F23">
         <v>4</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2">
         <v>44039</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1228,23 +1248,23 @@
       <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2795</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.938515406162465</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24">
+        <v>0.93851540616246498</v>
+      </c>
+      <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2">
         <v>44051</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1254,23 +1274,23 @@
       <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>4225</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.963725490196078</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>0.96372549019607801</v>
+      </c>
+      <c r="F25">
         <v>4</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2">
         <v>44051</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1280,23 +1300,23 @@
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>5720</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.99025</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E26">
+        <v>0.99024999999999996</v>
+      </c>
+      <c r="F26">
         <v>4</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2">
         <v>44051</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1306,23 +1326,23 @@
       <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>4095</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.969833333333333</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E27">
+        <v>0.96983333333333299</v>
+      </c>
+      <c r="F27">
         <v>4</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>44056</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1332,23 +1352,23 @@
       <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>6825</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.96461038961039</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E28">
+        <v>0.96461038961039003</v>
+      </c>
+      <c r="F28">
         <v>4</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2">
         <v>44061</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1358,23 +1378,23 @@
       <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>572</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.9599</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E29">
+        <v>0.95989999999999998</v>
+      </c>
+      <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>44061</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1384,23 +1404,23 @@
       <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2457</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.962833333333333</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30">
+        <v>0.96283333333333299</v>
+      </c>
+      <c r="F30">
         <v>4</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2">
         <v>44061</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1410,23 +1430,23 @@
       <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>403</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.984545454545454</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E31">
+        <v>0.98454545454545395</v>
+      </c>
+      <c r="F31">
         <v>4</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2">
         <v>44061</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1436,23 +1456,23 @@
       <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2457</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.9835</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E32">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="F32">
         <v>4</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="2">
         <v>44061</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1462,23 +1482,23 @@
       <c r="C33" t="s">
         <v>41</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>1820</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.979411764705882</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>0.97941176470588198</v>
+      </c>
+      <c r="F33">
         <v>4</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2">
         <v>44067</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1488,23 +1508,23 @@
       <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>11050</v>
       </c>
-      <c r="E34" t="n">
-        <v>0.900214285714286</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E34">
+        <v>0.90021428571428597</v>
+      </c>
+      <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2">
         <v>44067</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1514,23 +1534,23 @@
       <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>182</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.9655</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E35">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="F35">
         <v>4</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>44067</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1540,23 +1560,23 @@
       <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2743</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.959313725490196</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>4</v>
       </c>
       <c r="G36" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2">
         <v>44067</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1566,23 +1586,23 @@
       <c r="C37" t="s">
         <v>34</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2697.5</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.956416666666666</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E37">
+        <v>0.95641666666666603</v>
+      </c>
+      <c r="F37">
         <v>4</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="2">
         <v>44067</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1592,23 +1612,23 @@
       <c r="C38" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>3380</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.935333333333333</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E38">
+        <v>0.93533333333333302</v>
+      </c>
+      <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="2">
         <v>44072</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1618,23 +1638,23 @@
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1950</v>
       </c>
-      <c r="E39" t="n">
-        <v>1.00592592592593</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E39">
+        <v>1.0059259259259301</v>
+      </c>
+      <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2">
         <v>44072</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1644,23 +1664,23 @@
       <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>1547</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.945859375</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E40">
+        <v>0.94585937499999995</v>
+      </c>
+      <c r="F40">
         <v>4</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="2">
         <v>44072</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1670,23 +1690,23 @@
       <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>5281.25</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.998709677419355</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E41">
+        <v>0.99870967741935501</v>
+      </c>
+      <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="2">
         <v>44072</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1696,23 +1716,23 @@
       <c r="C42" t="s">
         <v>46</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>5281.25</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.948863636363636</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E42">
+        <v>0.94886363636363602</v>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="2">
         <v>44072</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1722,23 +1742,23 @@
       <c r="C43" t="s">
         <v>28</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>3120</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.943125</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E43">
+        <v>0.94312499999999999</v>
+      </c>
+      <c r="F43">
         <v>4</v>
       </c>
       <c r="G43" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="2">
         <v>44078</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1748,23 +1768,23 @@
       <c r="C44" t="s">
         <v>37</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>6175</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.994642857142857</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E44">
+        <v>0.99464285714285705</v>
+      </c>
+      <c r="F44">
         <v>4</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="2">
         <v>44078</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1774,23 +1794,23 @@
       <c r="C45" t="s">
         <v>31</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>2405</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.970833333333333</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E45">
+        <v>0.97083333333333299</v>
+      </c>
+      <c r="F45">
         <v>4</v>
       </c>
       <c r="G45" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="2">
         <v>44078</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -1800,23 +1820,23 @@
       <c r="C46" t="s">
         <v>31</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>2405</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.928518518518519</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E46">
+        <v>0.92851851851851896</v>
+      </c>
+      <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="2">
         <v>44078</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -1826,23 +1846,23 @@
       <c r="C47" t="s">
         <v>37</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>6175</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.978285714285714</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E47">
+        <v>0.97828571428571398</v>
+      </c>
+      <c r="F47">
         <v>4</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="2">
         <v>44078</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -1852,23 +1872,23 @@
       <c r="C48" t="s">
         <v>31</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>2405</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>0.943888888888889</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>2</v>
       </c>
       <c r="G48" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="2">
         <v>44078</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1878,23 +1898,23 @@
       <c r="C49" t="s">
         <v>41</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>1222</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.948857142857143</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49">
+        <v>0.94885714285714295</v>
+      </c>
+      <c r="F49">
         <v>4</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="2">
         <v>44081</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1904,23 +1924,23 @@
       <c r="C50" t="s">
         <v>47</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>2730</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.889609375</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E50">
+        <v>0.88960937500000004</v>
+      </c>
+      <c r="F50">
         <v>4</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="2">
         <v>44084</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1930,23 +1950,23 @@
       <c r="C51" t="s">
         <v>20</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>4654</v>
       </c>
-      <c r="E51" t="n">
-        <v>0.968913043478261</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="E51">
+        <v>0.96891304347826102</v>
+      </c>
+      <c r="F51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="2">
         <v>44084</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1956,23 +1976,23 @@
       <c r="C52" t="s">
         <v>48</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>6357</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>0.9768</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>4</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="2">
         <v>44084</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1982,23 +2002,23 @@
       <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>2600</v>
       </c>
-      <c r="E53" t="n">
-        <v>0.967619047619048</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="E53">
+        <v>0.96761904761904804</v>
+      </c>
+      <c r="F53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="2">
         <v>44084</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2008,23 +2028,23 @@
       <c r="C54" t="s">
         <v>34</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>19500</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>1.0105</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>4</v>
       </c>
       <c r="G54" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="2">
         <v>44099</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2034,23 +2054,23 @@
       <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>1072.5</v>
       </c>
-      <c r="E55" t="n">
-        <v>0.858526490066225</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="E55">
+        <v>0.85852649006622495</v>
+      </c>
+      <c r="F55">
         <v>4</v>
       </c>
       <c r="G55" t="s">
         <v>52</v>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="H55" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2060,23 +2080,23 @@
       <c r="C56" t="s">
         <v>39</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>1664</v>
       </c>
-      <c r="E56" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="E56">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="F56">
         <v>2</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="2">
         <v>44101</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2086,23 +2106,23 @@
       <c r="C57" t="s">
         <v>26</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>6643</v>
       </c>
-      <c r="E57" t="n">
-        <v>0.95640625</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="E57">
+        <v>0.95640625000000001</v>
+      </c>
+      <c r="F57">
         <v>2</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="2">
         <v>44101</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2112,23 +2132,23 @@
       <c r="C58" t="s">
         <v>53</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>2437.5</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.943243243243243</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="E58">
+        <v>0.94324324324324305</v>
+      </c>
+      <c r="F58">
         <v>2</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="2">
         <v>44101</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2138,23 +2158,23 @@
       <c r="C59" t="s">
         <v>53</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>1118</v>
       </c>
-      <c r="E59" t="n">
-        <v>0.961561561561561</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="E59">
+        <v>0.96156156156156103</v>
+      </c>
+      <c r="F59">
         <v>2</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="2">
         <v>44101</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2164,23 +2184,23 @@
       <c r="C60" t="s">
         <v>41</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>442</v>
       </c>
-      <c r="E60" t="n">
-        <v>0.973109243697479</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="E60">
+        <v>0.97310924369747898</v>
+      </c>
+      <c r="F60">
         <v>2</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2190,23 +2210,23 @@
       <c r="C61" t="s">
         <v>39</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>1456</v>
       </c>
-      <c r="E61" t="n">
-        <v>0.993837535014006</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="E61">
+        <v>0.99383753501400596</v>
+      </c>
+      <c r="F61">
         <v>2</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2216,23 +2236,23 @@
       <c r="C62" t="s">
         <v>41</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>403</v>
       </c>
-      <c r="E62" t="n">
-        <v>0.840756302521008</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="E62">
+        <v>0.84075630252100797</v>
+      </c>
+      <c r="F62">
         <v>2</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="2" t="n">
+      <c r="H62" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2242,23 +2262,23 @@
       <c r="C63" t="s">
         <v>39</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>1365</v>
       </c>
-      <c r="E63" t="n">
-        <v>0.976050420168067</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="E63">
+        <v>0.97605042016806698</v>
+      </c>
+      <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -2268,23 +2288,23 @@
       <c r="C64" t="s">
         <v>39</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>2834</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>1.16644444444444</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>2</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2294,23 +2314,23 @@
       <c r="C65" t="s">
         <v>54</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>2860</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.957888888888889</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="E65">
+        <v>0.95788888888888901</v>
+      </c>
+      <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2320,23 +2340,23 @@
       <c r="C66" t="s">
         <v>55</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>4394</v>
       </c>
-      <c r="E66" t="n">
-        <v>0.932072829131653</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="E66">
+        <v>0.93207282913165301</v>
+      </c>
+      <c r="F66">
         <v>2</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2346,23 +2366,23 @@
       <c r="C67" t="s">
         <v>53</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>1235</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>0.97332268370607</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>2</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -2372,23 +2392,23 @@
       <c r="C68" t="s">
         <v>53</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>2031.25</v>
       </c>
-      <c r="E68" t="n">
-        <v>2.19121405750799</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="E68">
+        <v>2.1912140575079899</v>
+      </c>
+      <c r="F68">
         <v>2</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2398,23 +2418,23 @@
       <c r="C69" t="s">
         <v>55</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>3250</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>0.956162464985994</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>2</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="2" t="n">
+      <c r="H69" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2424,23 +2444,23 @@
       <c r="C70" t="s">
         <v>39</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>2834</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.943444444444444</v>
-      </c>
-      <c r="F70" t="n">
+      <c r="E70">
+        <v>0.94344444444444397</v>
+      </c>
+      <c r="F70">
         <v>2</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="2" t="n">
+      <c r="H70" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -2450,23 +2470,23 @@
       <c r="C71" t="s">
         <v>53</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>2031.25</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>2.17396166134185</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>2</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="2" t="n">
+      <c r="H71" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2476,23 +2496,23 @@
       <c r="C72" t="s">
         <v>39</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>988</v>
       </c>
-      <c r="E72" t="n">
-        <v>0.948179271708683</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="E72">
+        <v>0.94817927170868299</v>
+      </c>
+      <c r="F72">
         <v>2</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="2" t="n">
+      <c r="H72" s="2">
         <v>44115</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2502,23 +2522,23 @@
       <c r="C73" t="s">
         <v>45</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>1105</v>
       </c>
-      <c r="E73" t="n">
-        <v>0.961896551724138</v>
-      </c>
-      <c r="F73" t="n">
+      <c r="E73">
+        <v>0.96189655172413802</v>
+      </c>
+      <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="2" t="n">
+      <c r="H73" s="2">
         <v>44115</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2528,23 +2548,23 @@
       <c r="C74" t="s">
         <v>41</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>1300</v>
       </c>
-      <c r="E74" t="n">
-        <v>0.950980392156863</v>
-      </c>
-      <c r="F74" t="n">
+      <c r="E74">
+        <v>0.95098039215686303</v>
+      </c>
+      <c r="F74">
         <v>2</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="2" t="n">
+      <c r="H74" s="2">
         <v>44115</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2554,23 +2574,23 @@
       <c r="C75" t="s">
         <v>48</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>2210</v>
       </c>
-      <c r="E75" t="n">
-        <v>0.9772</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="E75">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="2" t="n">
+      <c r="H75" s="2">
         <v>44115</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2580,23 +2600,23 @@
       <c r="C76" t="s">
         <v>48</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>3549</v>
       </c>
-      <c r="E76" t="n">
-        <v>0.925</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="E76">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F76">
         <v>2</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="2" t="n">
+      <c r="H76" s="2">
         <v>44115</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2606,23 +2626,23 @@
       <c r="C77" t="s">
         <v>56</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>1118</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>0.921722222222222</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>4</v>
       </c>
       <c r="G77" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="2" t="n">
+      <c r="H77" s="2">
         <v>44119</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2632,23 +2652,23 @@
       <c r="C78" t="s">
         <v>21</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>9997</v>
       </c>
-      <c r="E78" t="n">
-        <v>0.990625</v>
-      </c>
-      <c r="F78" t="n">
+      <c r="E78">
+        <v>0.99062499999999998</v>
+      </c>
+      <c r="F78">
         <v>2</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H78" s="2">
         <v>44121</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2658,23 +2678,23 @@
       <c r="C79" t="s">
         <v>20</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>3640</v>
       </c>
-      <c r="E79" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="E79">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F79">
         <v>2</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="2" t="n">
+      <c r="H79" s="2">
         <v>44121</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2684,23 +2704,23 @@
       <c r="C80" t="s">
         <v>45</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>1625</v>
       </c>
-      <c r="E80" t="n">
-        <v>0.96551724137931</v>
-      </c>
-      <c r="F80" t="n">
+      <c r="E80">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="F80">
         <v>2</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="2" t="n">
+      <c r="H80" s="2">
         <v>44121</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2710,23 +2730,23 @@
       <c r="C81" t="s">
         <v>47</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>1781</v>
       </c>
-      <c r="E81" t="n">
-        <v>0.9390625</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="E81">
+        <v>0.93906250000000002</v>
+      </c>
+      <c r="F81">
         <v>2</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="2" t="n">
+      <c r="H81" s="2">
         <v>44121</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2736,23 +2756,23 @@
       <c r="C82" t="s">
         <v>57</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>3562</v>
       </c>
-      <c r="E82" t="n">
-        <v>0.93775</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="E82">
+        <v>0.93774999999999997</v>
+      </c>
+      <c r="F82">
         <v>4</v>
       </c>
       <c r="G82" t="s">
         <v>18</v>
       </c>
-      <c r="H82" s="2" t="n">
+      <c r="H82" s="2">
         <v>44122</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2762,23 +2782,23 @@
       <c r="C83" t="s">
         <v>59</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>8125</v>
       </c>
-      <c r="E83" t="n">
-        <v>0.990119047619048</v>
-      </c>
-      <c r="F83" t="n">
+      <c r="E83">
+        <v>0.99011904761904801</v>
+      </c>
+      <c r="F83">
         <v>4</v>
       </c>
       <c r="G83" t="s">
         <v>18</v>
       </c>
-      <c r="H83" s="2" t="n">
+      <c r="H83" s="2">
         <v>44122</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2788,23 +2808,23 @@
       <c r="C84" t="s">
         <v>13</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>19500</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>0.949583333333333</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>4</v>
       </c>
       <c r="G84" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="2" t="n">
+      <c r="H84" s="2">
         <v>44123</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -2814,23 +2834,23 @@
       <c r="C85" t="s">
         <v>60</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>19500</v>
       </c>
-      <c r="E85" t="n">
-        <v>0.966222222222222</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="E85">
+        <v>0.96622222222222198</v>
+      </c>
+      <c r="F85">
         <v>3</v>
       </c>
       <c r="G85" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="2" t="n">
+      <c r="H85" s="2">
         <v>44123</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2840,23 +2860,23 @@
       <c r="C86" t="s">
         <v>53</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>812.5</v>
       </c>
-      <c r="E86" t="n">
-        <v>0.946805111821086</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="E86">
+        <v>0.94680511182108595</v>
+      </c>
+      <c r="F86">
         <v>2</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="2" t="n">
+      <c r="H86" s="2">
         <v>44127</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2866,23 +2886,23 @@
       <c r="C87" t="s">
         <v>39</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>3510</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>0.954666666666667</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>2</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
-      <c r="H87" s="2" t="n">
+      <c r="H87" s="2">
         <v>44127</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2892,23 +2912,23 @@
       <c r="C88" t="s">
         <v>53</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>1014</v>
       </c>
-      <c r="E88" t="n">
-        <v>0.99185303514377</v>
-      </c>
-      <c r="F88" t="n">
+      <c r="E88">
+        <v>0.99185303514376999</v>
+      </c>
+      <c r="F88">
         <v>2</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
       </c>
-      <c r="H88" s="2" t="n">
+      <c r="H88" s="2">
         <v>44127</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2918,23 +2938,23 @@
       <c r="C89" t="s">
         <v>45</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>1677</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>1.14844827586207</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>2</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
-      <c r="H89" s="2" t="n">
+      <c r="H89" s="2">
         <v>44127</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2944,23 +2964,23 @@
       <c r="C90" t="s">
         <v>45</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>1677</v>
       </c>
-      <c r="E90" t="n">
-        <v>0.995172413793104</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="E90">
+        <v>0.99517241379310395</v>
+      </c>
+      <c r="F90">
         <v>2</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
       </c>
-      <c r="H90" s="2" t="n">
+      <c r="H90" s="2">
         <v>44127</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2970,23 +2990,23 @@
       <c r="C91" t="s">
         <v>61</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>3757</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>0.9385</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>4</v>
       </c>
       <c r="G91" t="s">
         <v>18</v>
       </c>
-      <c r="H91" s="2" t="n">
+      <c r="H91" s="2">
         <v>44134</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2996,23 +3016,23 @@
       <c r="C92" t="s">
         <v>20</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>2756</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>0.996</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>2</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="2" t="n">
+      <c r="H92" s="2">
         <v>44138</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -3022,23 +3042,23 @@
       <c r="C93" t="s">
         <v>41</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>1391</v>
       </c>
-      <c r="E93" t="n">
-        <v>0.807724719101124</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="E93">
+        <v>0.80772471910112398</v>
+      </c>
+      <c r="F93">
         <v>2</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
       </c>
-      <c r="H93" s="2" t="n">
+      <c r="H93" s="2">
         <v>44138</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3048,23 +3068,23 @@
       <c r="C94" t="s">
         <v>20</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>2405</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>0.953918918918919</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>2</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
       </c>
-      <c r="H94" s="2" t="n">
+      <c r="H94" s="2">
         <v>44138</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3074,23 +3094,23 @@
       <c r="C95" t="s">
         <v>41</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>1235</v>
       </c>
-      <c r="E95" t="n">
-        <v>0.972191011235955</v>
-      </c>
-      <c r="F95" t="n">
+      <c r="E95">
+        <v>0.97219101123595497</v>
+      </c>
+      <c r="F95">
         <v>2</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="2" t="n">
+      <c r="H95" s="2">
         <v>44138</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3100,23 +3120,23 @@
       <c r="C96" t="s">
         <v>62</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>5941</v>
       </c>
-      <c r="E96" t="n">
-        <v>0.959246575342466</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="E96">
+        <v>0.95924657534246605</v>
+      </c>
+      <c r="F96">
         <v>2</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="2" t="n">
+      <c r="H96" s="2">
         <v>44138</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -3126,23 +3146,23 @@
       <c r="C97" t="s">
         <v>45</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>1729</v>
       </c>
-      <c r="E97" t="n">
-        <v>1.18103448275862</v>
-      </c>
-      <c r="F97" t="n">
+      <c r="E97">
+        <v>1.1810344827586201</v>
+      </c>
+      <c r="F97">
         <v>2</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
       </c>
-      <c r="H97" s="2" t="n">
+      <c r="H97" s="2">
         <v>44138</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3152,23 +3172,23 @@
       <c r="C98" t="s">
         <v>45</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>1729</v>
       </c>
-      <c r="E98" t="n">
-        <v>1.00862068965517</v>
-      </c>
-      <c r="F98" t="n">
+      <c r="E98">
+        <v>1.0086206896551699</v>
+      </c>
+      <c r="F98">
         <v>1</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="2" t="n">
+      <c r="H98" s="2">
         <v>44138</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -3178,23 +3198,23 @@
       <c r="C99" t="s">
         <v>59</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>1300</v>
       </c>
-      <c r="E99" t="n">
-        <v>0.948809523809524</v>
-      </c>
-      <c r="F99" t="n">
+      <c r="E99">
+        <v>0.94880952380952399</v>
+      </c>
+      <c r="F99">
         <v>4</v>
       </c>
       <c r="G99" t="s">
         <v>18</v>
       </c>
-      <c r="H99" s="2" t="n">
+      <c r="H99" s="2">
         <v>44145</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3204,23 +3224,23 @@
       <c r="C100" t="s">
         <v>31</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>6240</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>1.02768518518519</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>4</v>
       </c>
       <c r="G100" t="s">
         <v>18</v>
       </c>
-      <c r="H100" s="2" t="n">
+      <c r="H100" s="2">
         <v>44145</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3230,23 +3250,23 @@
       <c r="C101" t="s">
         <v>31</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>5460</v>
       </c>
-      <c r="E101" t="n">
-        <v>1.00842592592593</v>
-      </c>
-      <c r="F101" t="n">
+      <c r="E101">
+        <v>1.0084259259259301</v>
+      </c>
+      <c r="F101">
         <v>4</v>
       </c>
       <c r="G101" t="s">
         <v>18</v>
       </c>
-      <c r="H101" s="2" t="n">
+      <c r="H101" s="2">
         <v>44145</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3256,23 +3276,23 @@
       <c r="C102" t="s">
         <v>20</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>1482</v>
       </c>
-      <c r="E102" t="n">
-        <v>0.961351351351351</v>
-      </c>
-      <c r="F102" t="n">
+      <c r="E102">
+        <v>0.96135135135135097</v>
+      </c>
+      <c r="F102">
         <v>2</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="2" t="n">
+      <c r="H102" s="2">
         <v>44147</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -3282,23 +3302,23 @@
       <c r="C103" t="s">
         <v>63</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>13000</v>
       </c>
-      <c r="E103" t="n">
-        <v>0.905583333333333</v>
-      </c>
-      <c r="F103" t="n">
+      <c r="E103">
+        <v>0.90558333333333296</v>
+      </c>
+      <c r="F103">
         <v>4</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
       </c>
-      <c r="H103" s="2" t="n">
+      <c r="H103" s="2">
         <v>44151</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3308,23 +3328,23 @@
       <c r="C104" t="s">
         <v>41</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>1625</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>0.995378151260504</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>2</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
       </c>
-      <c r="H104" s="2" t="n">
+      <c r="H104" s="2">
         <v>44154</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -3334,23 +3354,23 @@
       <c r="C105" t="s">
         <v>28</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>8021</v>
       </c>
-      <c r="E105" t="n">
-        <v>0.989189189189189</v>
-      </c>
-      <c r="F105" t="n">
+      <c r="E105">
+        <v>0.98918918918918897</v>
+      </c>
+      <c r="F105">
         <v>2</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
       </c>
-      <c r="H105" s="2" t="n">
+      <c r="H105" s="2">
         <v>44154</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3360,23 +3380,23 @@
       <c r="C106" t="s">
         <v>45</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>494</v>
       </c>
-      <c r="E106" t="n">
-        <v>0.915172413793103</v>
-      </c>
-      <c r="F106" t="n">
+      <c r="E106">
+        <v>0.91517241379310299</v>
+      </c>
+      <c r="F106">
         <v>2</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
       </c>
-      <c r="H106" s="2" t="n">
+      <c r="H106" s="2">
         <v>44154</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3386,23 +3406,23 @@
       <c r="C107" t="s">
         <v>45</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>494</v>
       </c>
-      <c r="E107" t="n">
-        <v>0.97551724137931</v>
-      </c>
-      <c r="F107" t="n">
+      <c r="E107">
+        <v>0.97551724137930995</v>
+      </c>
+      <c r="F107">
         <v>2</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
       </c>
-      <c r="H107" s="2" t="n">
+      <c r="H107" s="2">
         <v>44154</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -3412,23 +3432,23 @@
       <c r="C108" t="s">
         <v>41</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>2444</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>1.02142857142857</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>2</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
       </c>
-      <c r="H108" s="2" t="n">
+      <c r="H108" s="2">
         <v>44154</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -3438,23 +3458,23 @@
       <c r="C109" t="s">
         <v>13</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>13000</v>
       </c>
-      <c r="E109" t="n">
-        <v>0.914916666666667</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="E109">
+        <v>0.91491666666666704</v>
+      </c>
+      <c r="F109">
         <v>4</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
       </c>
-      <c r="H109" s="2" t="n">
+      <c r="H109" s="2">
         <v>44157</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -3464,23 +3484,23 @@
       <c r="C110" t="s">
         <v>20</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>403</v>
       </c>
-      <c r="E110" t="n">
-        <v>0.934054054054054</v>
-      </c>
-      <c r="F110" t="n">
+      <c r="E110">
+        <v>0.93405405405405395</v>
+      </c>
+      <c r="F110">
         <v>4</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
       </c>
-      <c r="H110" s="2" t="n">
+      <c r="H110" s="2">
         <v>44158</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3490,23 +3510,23 @@
       <c r="C111" t="s">
         <v>39</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>4810</v>
       </c>
-      <c r="E111" t="n">
-        <v>0.975060975609756</v>
-      </c>
-      <c r="F111" t="n">
+      <c r="E111">
+        <v>0.97506097560975602</v>
+      </c>
+      <c r="F111">
         <v>4</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="2" t="n">
+      <c r="H111" s="2">
         <v>44158</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3516,23 +3536,23 @@
       <c r="C112" t="s">
         <v>37</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>23400</v>
       </c>
-      <c r="E112" t="n">
-        <v>1.07628571428571</v>
-      </c>
-      <c r="F112" t="n">
+      <c r="E112">
+        <v>1.0762857142857101</v>
+      </c>
+      <c r="F112">
         <v>4</v>
       </c>
       <c r="G112" t="s">
         <v>18</v>
       </c>
-      <c r="H112" s="2" t="n">
+      <c r="H112" s="2">
         <v>44161</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -3542,23 +3562,23 @@
       <c r="C113" t="s">
         <v>53</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>897</v>
       </c>
-      <c r="E113" t="n">
-        <v>0.863986486486487</v>
-      </c>
-      <c r="F113" t="n">
+      <c r="E113">
+        <v>0.86398648648648702</v>
+      </c>
+      <c r="F113">
         <v>4</v>
       </c>
       <c r="G113" t="s">
         <v>18</v>
       </c>
-      <c r="H113" s="2" t="n">
+      <c r="H113" s="2">
         <v>44172</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -3568,23 +3588,23 @@
       <c r="C114" t="s">
         <v>20</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>494</v>
       </c>
-      <c r="E114" t="n">
-        <v>0.974130434782609</v>
-      </c>
-      <c r="F114" t="n">
+      <c r="E114">
+        <v>0.97413043478260897</v>
+      </c>
+      <c r="F114">
         <v>4</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
       </c>
-      <c r="H114" s="2" t="n">
+      <c r="H114" s="2">
         <v>44176</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3594,23 +3614,23 @@
       <c r="C115" t="s">
         <v>64</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>1950</v>
       </c>
-      <c r="E115" t="n">
-        <v>0.97578125</v>
-      </c>
-      <c r="F115" t="n">
+      <c r="E115">
+        <v>0.97578125000000004</v>
+      </c>
+      <c r="F115">
         <v>4</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
       </c>
-      <c r="H115" s="2" t="n">
+      <c r="H115" s="2">
         <v>44183</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3620,23 +3640,23 @@
       <c r="C116" t="s">
         <v>31</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>7800</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>0.973981481481482</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>4</v>
       </c>
       <c r="G116" t="s">
         <v>18</v>
       </c>
-      <c r="H116" s="2" t="n">
+      <c r="H116" s="2">
         <v>44185</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3646,23 +3666,23 @@
       <c r="C117" t="s">
         <v>65</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>6669</v>
       </c>
-      <c r="E117" t="n">
-        <v>0.953703703703704</v>
-      </c>
-      <c r="F117" t="n">
+      <c r="E117">
+        <v>0.95370370370370405</v>
+      </c>
+      <c r="F117">
         <v>4</v>
       </c>
       <c r="G117" t="s">
         <v>18</v>
       </c>
-      <c r="H117" s="2" t="n">
+      <c r="H117" s="2">
         <v>44190</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3672,23 +3692,23 @@
       <c r="C118" t="s">
         <v>29</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>4550</v>
       </c>
-      <c r="E118" t="n">
-        <v>0.978071428571429</v>
-      </c>
-      <c r="F118" t="n">
+      <c r="E118">
+        <v>0.97807142857142904</v>
+      </c>
+      <c r="F118">
         <v>4</v>
       </c>
       <c r="G118" t="s">
         <v>18</v>
       </c>
-      <c r="H118" s="2" t="n">
+      <c r="H118" s="2">
         <v>44190</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3698,23 +3718,23 @@
       <c r="C119" t="s">
         <v>46</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>2437.5</v>
       </c>
-      <c r="E119" t="n">
-        <v>0.979555555555555</v>
-      </c>
-      <c r="F119" t="n">
+      <c r="E119">
+        <v>0.97955555555555496</v>
+      </c>
+      <c r="F119">
         <v>4</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
       </c>
-      <c r="H119" s="2" t="n">
+      <c r="H119" s="2">
         <v>44193</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -3724,23 +3744,23 @@
       <c r="C120" t="s">
         <v>39</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>3445</v>
       </c>
-      <c r="E120" t="n">
-        <v>0.992391304347826</v>
-      </c>
-      <c r="F120" t="n">
+      <c r="E120">
+        <v>0.99239130434782596</v>
+      </c>
+      <c r="F120">
         <v>4</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
       </c>
-      <c r="H120" s="2" t="n">
+      <c r="H120" s="2">
         <v>44193</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -3750,23 +3770,23 @@
       <c r="C121" t="s">
         <v>66</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>1950</v>
       </c>
-      <c r="E121" t="n">
-        <v>0.947928571428572</v>
-      </c>
-      <c r="F121" t="n">
+      <c r="E121">
+        <v>0.94792857142857201</v>
+      </c>
+      <c r="F121">
         <v>4</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
       </c>
-      <c r="H121" s="2" t="n">
+      <c r="H121" s="2">
         <v>44193</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -3776,23 +3796,23 @@
       <c r="C122" t="s">
         <v>59</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>4303</v>
       </c>
-      <c r="E122" t="n">
-        <v>0.953896882494005</v>
-      </c>
-      <c r="F122" t="n">
+      <c r="E122">
+        <v>0.95389688249400495</v>
+      </c>
+      <c r="F122">
         <v>4</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
       </c>
-      <c r="H122" s="2" t="n">
+      <c r="H122" s="2">
         <v>44193</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3802,23 +3822,23 @@
       <c r="C123" t="s">
         <v>59</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>1300</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>0.903555555555556</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>4</v>
       </c>
       <c r="G123" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="2" t="n">
+      <c r="H123" s="2">
         <v>44200</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -3828,23 +3848,23 @@
       <c r="C124" t="s">
         <v>39</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>3471</v>
       </c>
-      <c r="E124" t="n">
-        <v>0.967685185185185</v>
-      </c>
-      <c r="F124" t="n">
+      <c r="E124">
+        <v>0.96768518518518498</v>
+      </c>
+      <c r="F124">
         <v>4</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
       </c>
-      <c r="H124" s="2" t="n">
+      <c r="H124" s="2">
         <v>44200</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3854,23 +3874,23 @@
       <c r="C125" t="s">
         <v>41</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>1599</v>
       </c>
-      <c r="E125" t="n">
-        <v>0.994553072625698</v>
-      </c>
-      <c r="F125" t="n">
+      <c r="E125">
+        <v>0.99455307262569803</v>
+      </c>
+      <c r="F125">
         <v>4</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
       </c>
-      <c r="H125" s="2" t="n">
+      <c r="H125" s="2">
         <v>44200</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -3880,23 +3900,23 @@
       <c r="C126" t="s">
         <v>67</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>1105</v>
       </c>
-      <c r="E126" t="n">
-        <v>0.951875</v>
-      </c>
-      <c r="F126" t="n">
+      <c r="E126">
+        <v>0.95187500000000003</v>
+      </c>
+      <c r="F126">
         <v>4</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
       </c>
-      <c r="H126" s="2" t="n">
+      <c r="H126" s="2">
         <v>44200</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -3906,23 +3926,23 @@
       <c r="C127" t="s">
         <v>68</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>2457</v>
       </c>
-      <c r="E127" t="n">
-        <v>0.9911</v>
-      </c>
-      <c r="F127" t="n">
+      <c r="E127">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="F127">
         <v>2</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
       </c>
-      <c r="H127" s="2" t="n">
+      <c r="H127" s="2">
         <v>44200</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -3932,23 +3952,23 @@
       <c r="C128" t="s">
         <v>39</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>3471</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>1.00259259259259</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>4</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
       </c>
-      <c r="H128" s="2" t="n">
+      <c r="H128" s="2">
         <v>44207</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -3958,23 +3978,23 @@
       <c r="C129" t="s">
         <v>69</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>702</v>
       </c>
-      <c r="E129" t="n">
-        <v>0.869032258064516</v>
-      </c>
-      <c r="F129" t="n">
+      <c r="E129">
+        <v>0.86903225806451601</v>
+      </c>
+      <c r="F129">
         <v>4</v>
       </c>
       <c r="G129" t="s">
         <v>18</v>
       </c>
-      <c r="H129" s="2" t="n">
+      <c r="H129" s="2">
         <v>44207</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -3984,23 +4004,23 @@
       <c r="C130" t="s">
         <v>62</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>4706</v>
       </c>
-      <c r="E130" t="n">
-        <v>0.981233933161954</v>
-      </c>
-      <c r="F130" t="n">
+      <c r="E130">
+        <v>0.98123393316195395</v>
+      </c>
+      <c r="F130">
         <v>4</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
       </c>
-      <c r="H130" s="2" t="n">
+      <c r="H130" s="2">
         <v>44207</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4010,23 +4030,23 @@
       <c r="C131" t="s">
         <v>69</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>1547</v>
       </c>
-      <c r="E131" t="n">
-        <v>0.995645161290323</v>
-      </c>
-      <c r="F131" t="n">
+      <c r="E131">
+        <v>0.99564516129032299</v>
+      </c>
+      <c r="F131">
         <v>4</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
       </c>
-      <c r="H131" s="2" t="n">
+      <c r="H131" s="2">
         <v>44207</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4036,23 +4056,23 @@
       <c r="C132" t="s">
         <v>37</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>2860</v>
       </c>
-      <c r="E132" t="n">
-        <v>0.9125</v>
-      </c>
-      <c r="F132" t="n">
+      <c r="E132">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F132">
         <v>4</v>
       </c>
       <c r="G132" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="2" t="n">
+      <c r="H132" s="2">
         <v>44214</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -4062,23 +4082,23 @@
       <c r="C133" t="s">
         <v>39</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>1313</v>
       </c>
-      <c r="E133" t="n">
-        <v>1.00396551724138</v>
-      </c>
-      <c r="F133" t="n">
+      <c r="E133">
+        <v>1.0039655172413799</v>
+      </c>
+      <c r="F133">
         <v>4</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="2" t="n">
+      <c r="H133" s="2">
         <v>44217</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -4088,23 +4108,23 @@
       <c r="C134" t="s">
         <v>48</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>2080</v>
       </c>
-      <c r="E134" t="n">
-        <v>0.9837</v>
-      </c>
-      <c r="F134" t="n">
+      <c r="E134">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="F134">
         <v>4</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
       </c>
-      <c r="H134" s="2" t="n">
+      <c r="H134" s="2">
         <v>44217</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -4114,23 +4134,23 @@
       <c r="C135" t="s">
         <v>70</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>442</v>
       </c>
-      <c r="E135" t="n">
-        <v>0.98641975308642</v>
-      </c>
-      <c r="F135" t="n">
+      <c r="E135">
+        <v>0.98641975308642005</v>
+      </c>
+      <c r="F135">
         <v>4</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
-      <c r="H135" s="2" t="n">
+      <c r="H135" s="2">
         <v>44217</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4140,23 +4160,23 @@
       <c r="C136" t="s">
         <v>39</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>2795</v>
       </c>
-      <c r="E136" t="n">
-        <v>0.969664268585132</v>
-      </c>
-      <c r="F136" t="n">
+      <c r="E136">
+        <v>0.96966426858513199</v>
+      </c>
+      <c r="F136">
         <v>4</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
       </c>
-      <c r="H136" s="2" t="n">
+      <c r="H136" s="2">
         <v>44217</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4166,23 +4186,23 @@
       <c r="C137" t="s">
         <v>48</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>3250</v>
       </c>
-      <c r="E137" t="n">
-        <v>0.9892</v>
-      </c>
-      <c r="F137" t="n">
+      <c r="E137">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="F137">
         <v>4</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
       </c>
-      <c r="H137" s="2" t="n">
+      <c r="H137" s="2">
         <v>44217</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4192,23 +4212,23 @@
       <c r="C138" t="s">
         <v>41</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>455</v>
       </c>
-      <c r="E138" t="n">
-        <v>0.9285</v>
-      </c>
-      <c r="F138" t="n">
+      <c r="E138">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="F138">
         <v>4</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
       </c>
-      <c r="H138" s="2" t="n">
+      <c r="H138" s="2">
         <v>44217</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4218,23 +4238,23 @@
       <c r="C139" t="s">
         <v>59</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>4225</v>
       </c>
-      <c r="E139" t="n">
-        <v>0.987590909090909</v>
-      </c>
-      <c r="F139" t="n">
+      <c r="E139">
+        <v>0.98759090909090896</v>
+      </c>
+      <c r="F139">
         <v>4</v>
       </c>
       <c r="G139" t="s">
         <v>18</v>
       </c>
-      <c r="H139" s="2" t="n">
+      <c r="H139" s="2">
         <v>44219</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4244,23 +4264,23 @@
       <c r="C140" t="s">
         <v>71</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>273</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>1.0578125</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>4</v>
       </c>
       <c r="G140" t="s">
         <v>52</v>
       </c>
-      <c r="H140" s="2" t="n">
+      <c r="H140" s="2">
         <v>44220</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -4270,23 +4290,23 @@
       <c r="C141" t="s">
         <v>72</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>3900</v>
       </c>
-      <c r="E141" t="n">
-        <v>0.9835</v>
-      </c>
-      <c r="F141" t="n">
+      <c r="E141">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="F141">
         <v>4</v>
       </c>
       <c r="G141" t="s">
         <v>18</v>
       </c>
-      <c r="H141" s="2" t="n">
+      <c r="H141" s="2">
         <v>44225</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -4296,23 +4316,23 @@
       <c r="C142" t="s">
         <v>31</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>5850</v>
       </c>
-      <c r="E142" t="n">
-        <v>1.019</v>
-      </c>
-      <c r="F142" t="n">
+      <c r="E142">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="F142">
         <v>4</v>
       </c>
       <c r="G142" t="s">
         <v>18</v>
       </c>
-      <c r="H142" s="2" t="n">
+      <c r="H142" s="2">
         <v>44225</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -4322,23 +4342,23 @@
       <c r="C143" t="s">
         <v>31</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>5850</v>
       </c>
-      <c r="E143" t="n">
-        <v>0.9745</v>
-      </c>
-      <c r="F143" t="n">
+      <c r="E143">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="F143">
         <v>4</v>
       </c>
       <c r="G143" t="s">
         <v>18</v>
       </c>
-      <c r="H143" s="2" t="n">
+      <c r="H143" s="2">
         <v>44225</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -4348,23 +4368,23 @@
       <c r="C144" t="s">
         <v>65</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>5785</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>0.988611111111111</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>4</v>
       </c>
       <c r="G144" t="s">
         <v>18</v>
       </c>
-      <c r="H144" s="2" t="n">
+      <c r="H144" s="2">
         <v>44225</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4374,23 +4394,23 @@
       <c r="C145" t="s">
         <v>73</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>858</v>
       </c>
-      <c r="E145" t="n">
-        <v>0.966428571428572</v>
-      </c>
-      <c r="F145" t="n">
+      <c r="E145">
+        <v>0.96642857142857197</v>
+      </c>
+      <c r="F145">
         <v>4</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
       </c>
-      <c r="H145" s="2" t="n">
+      <c r="H145" s="2">
         <v>44231</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -4400,23 +4420,23 @@
       <c r="C146" t="s">
         <v>73</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>2031.25</v>
       </c>
-      <c r="E146" t="n">
-        <v>0.962922077922078</v>
-      </c>
-      <c r="F146" t="n">
+      <c r="E146">
+        <v>0.96292207792207796</v>
+      </c>
+      <c r="F146">
         <v>4</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
       </c>
-      <c r="H146" s="2" t="n">
+      <c r="H146" s="2">
         <v>44231</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4426,23 +4446,23 @@
       <c r="C147" t="s">
         <v>73</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>1218.75</v>
       </c>
-      <c r="E147" t="n">
-        <v>0.967792207792208</v>
-      </c>
-      <c r="F147" t="n">
+      <c r="E147">
+        <v>0.96779220779220798</v>
+      </c>
+      <c r="F147">
         <v>4</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
       </c>
-      <c r="H147" s="2" t="n">
+      <c r="H147" s="2">
         <v>44231</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -4452,23 +4472,23 @@
       <c r="C148" t="s">
         <v>62</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>1001</v>
       </c>
-      <c r="E148" t="n">
-        <v>0.981298200514139</v>
-      </c>
-      <c r="F148" t="n">
+      <c r="E148">
+        <v>0.98129820051413896</v>
+      </c>
+      <c r="F148">
         <v>4</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
       </c>
-      <c r="H148" s="2" t="n">
+      <c r="H148" s="2">
         <v>44231</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -4478,23 +4498,23 @@
       <c r="C149" t="s">
         <v>46</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>406.25</v>
       </c>
-      <c r="E149" t="n">
-        <v>0.9315</v>
-      </c>
-      <c r="F149" t="n">
+      <c r="E149">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="F149">
         <v>4</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
       </c>
-      <c r="H149" s="2" t="n">
+      <c r="H149" s="2">
         <v>44231</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -4504,23 +4524,23 @@
       <c r="C150" t="s">
         <v>39</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>3055</v>
       </c>
-      <c r="E150" t="n">
-        <v>0.975121951219512</v>
-      </c>
-      <c r="F150" t="n">
+      <c r="E150">
+        <v>0.97512195121951195</v>
+      </c>
+      <c r="F150">
         <v>4</v>
       </c>
       <c r="G150" t="s">
         <v>11</v>
       </c>
-      <c r="H150" s="2" t="n">
+      <c r="H150" s="2">
         <v>44231</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -4530,23 +4550,23 @@
       <c r="C151" t="s">
         <v>37</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>16250</v>
       </c>
-      <c r="E151" t="n">
-        <v>0.91375</v>
-      </c>
-      <c r="F151" t="n">
+      <c r="E151">
+        <v>0.91374999999999995</v>
+      </c>
+      <c r="F151">
         <v>4</v>
       </c>
       <c r="G151" t="s">
         <v>14</v>
       </c>
-      <c r="H151" s="2" t="n">
+      <c r="H151" s="2">
         <v>44236</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -4556,23 +4576,23 @@
       <c r="C152" t="s">
         <v>73</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>1404</v>
       </c>
-      <c r="E152" t="n">
-        <v>0.988701298701299</v>
-      </c>
-      <c r="F152" t="n">
+      <c r="E152">
+        <v>0.98870129870129897</v>
+      </c>
+      <c r="F152">
         <v>4</v>
       </c>
       <c r="G152" t="s">
         <v>11</v>
       </c>
-      <c r="H152" s="2" t="n">
+      <c r="H152" s="2">
         <v>44236</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -4582,23 +4602,23 @@
       <c r="C153" t="s">
         <v>48</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>455</v>
       </c>
-      <c r="E153" t="n">
-        <v>0.9227</v>
-      </c>
-      <c r="F153" t="n">
+      <c r="E153">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="F153">
         <v>4</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
       </c>
-      <c r="H153" s="2" t="n">
+      <c r="H153" s="2">
         <v>44236</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -4608,23 +4628,23 @@
       <c r="C154" t="s">
         <v>73</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>2843.75</v>
       </c>
-      <c r="E154" t="n">
-        <v>0.958116883116883</v>
-      </c>
-      <c r="F154" t="n">
+      <c r="E154">
+        <v>0.95811688311688303</v>
+      </c>
+      <c r="F154">
         <v>4</v>
       </c>
       <c r="G154" t="s">
         <v>11</v>
       </c>
-      <c r="H154" s="2" t="n">
+      <c r="H154" s="2">
         <v>44236</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -4634,23 +4654,23 @@
       <c r="C155" t="s">
         <v>56</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>2678</v>
       </c>
-      <c r="E155" t="n">
-        <v>1.01264285714286</v>
-      </c>
-      <c r="F155" t="n">
+      <c r="E155">
+        <v>1.0126428571428601</v>
+      </c>
+      <c r="F155">
         <v>4</v>
       </c>
       <c r="G155" t="s">
         <v>11</v>
       </c>
-      <c r="H155" s="2" t="n">
+      <c r="H155" s="2">
         <v>44236</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -4660,23 +4680,23 @@
       <c r="C156" t="s">
         <v>48</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>1261</v>
       </c>
-      <c r="E156" t="n">
-        <v>1.0146</v>
-      </c>
-      <c r="F156" t="n">
+      <c r="E156">
+        <v>1.0145999999999999</v>
+      </c>
+      <c r="F156">
         <v>4</v>
       </c>
       <c r="G156" t="s">
         <v>11</v>
       </c>
-      <c r="H156" s="2" t="n">
+      <c r="H156" s="2">
         <v>44236</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -4686,23 +4706,23 @@
       <c r="C157" t="s">
         <v>48</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>403</v>
       </c>
-      <c r="E157" t="n">
-        <v>0.9604</v>
-      </c>
-      <c r="F157" t="n">
+      <c r="E157">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="F157">
         <v>4</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
       </c>
-      <c r="H157" s="2" t="n">
+      <c r="H157" s="2">
         <v>44248</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -4712,23 +4732,23 @@
       <c r="C158" t="s">
         <v>48</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>1781</v>
       </c>
-      <c r="E158" t="n">
-        <v>0.9619</v>
-      </c>
-      <c r="F158" t="n">
+      <c r="E158">
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="F158">
         <v>4</v>
       </c>
       <c r="G158" t="s">
         <v>11</v>
       </c>
-      <c r="H158" s="2" t="n">
+      <c r="H158" s="2">
         <v>44248</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -4738,23 +4758,23 @@
       <c r="C159" t="s">
         <v>41</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>572</v>
       </c>
-      <c r="E159" t="n">
-        <v>0.958246753246753</v>
-      </c>
-      <c r="F159" t="n">
+      <c r="E159">
+        <v>0.95824675324675301</v>
+      </c>
+      <c r="F159">
         <v>4</v>
       </c>
       <c r="G159" t="s">
         <v>11</v>
       </c>
-      <c r="H159" s="2" t="n">
+      <c r="H159" s="2">
         <v>44248</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -4764,23 +4784,23 @@
       <c r="C160" t="s">
         <v>69</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>2249</v>
       </c>
-      <c r="E160" t="n">
-        <v>0.96005</v>
-      </c>
-      <c r="F160" t="n">
+      <c r="E160">
+        <v>0.96004999999999996</v>
+      </c>
+      <c r="F160">
         <v>4</v>
       </c>
       <c r="G160" t="s">
         <v>11</v>
       </c>
-      <c r="H160" s="2" t="n">
+      <c r="H160" s="2">
         <v>44248</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -4790,23 +4810,23 @@
       <c r="C161" t="s">
         <v>41</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>572</v>
       </c>
-      <c r="E161" t="n">
-        <v>0.911688311688312</v>
-      </c>
-      <c r="F161" t="n">
+      <c r="E161">
+        <v>0.91168831168831199</v>
+      </c>
+      <c r="F161">
         <v>4</v>
       </c>
       <c r="G161" t="s">
         <v>11</v>
       </c>
-      <c r="H161" s="2" t="n">
+      <c r="H161" s="2">
         <v>44248</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -4816,23 +4836,23 @@
       <c r="C162" t="s">
         <v>31</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>650</v>
       </c>
-      <c r="E162" t="n">
-        <v>0.9408</v>
-      </c>
-      <c r="F162" t="n">
+      <c r="E162">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="F162">
         <v>4</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
       </c>
-      <c r="H162" s="2" t="n">
+      <c r="H162" s="2">
         <v>44252</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -4842,23 +4862,23 @@
       <c r="C163" t="s">
         <v>31</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>650</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>0.9486</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>4</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
       </c>
-      <c r="H163" s="2" t="n">
+      <c r="H163" s="2">
         <v>44252</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -4868,23 +4888,23 @@
       <c r="C164" t="s">
         <v>49</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>5200</v>
       </c>
-      <c r="E164" t="n">
-        <v>0.971666666666667</v>
-      </c>
-      <c r="F164" t="n">
+      <c r="E164">
+        <v>0.97166666666666701</v>
+      </c>
+      <c r="F164">
         <v>4</v>
       </c>
       <c r="G164" t="s">
         <v>18</v>
       </c>
-      <c r="H164" s="2" t="n">
+      <c r="H164" s="2">
         <v>44259</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -4894,23 +4914,23 @@
       <c r="C165" t="s">
         <v>73</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>2031.25</v>
       </c>
-      <c r="E165" t="n">
-        <v>0.931428571428571</v>
-      </c>
-      <c r="F165" t="n">
+      <c r="E165">
+        <v>0.93142857142857105</v>
+      </c>
+      <c r="F165">
         <v>4</v>
       </c>
       <c r="G165" t="s">
         <v>18</v>
       </c>
-      <c r="H165" s="2" t="n">
+      <c r="H165" s="2">
         <v>44259</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -4920,23 +4940,23 @@
       <c r="C166" t="s">
         <v>73</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>2171</v>
       </c>
-      <c r="E166" t="n">
-        <v>0.964214285714286</v>
-      </c>
-      <c r="F166" t="n">
+      <c r="E166">
+        <v>0.96421428571428602</v>
+      </c>
+      <c r="F166">
         <v>4</v>
       </c>
       <c r="G166" t="s">
         <v>18</v>
       </c>
-      <c r="H166" s="2" t="n">
+      <c r="H166" s="2">
         <v>44259</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -4946,23 +4966,23 @@
       <c r="C167" t="s">
         <v>73</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>1625</v>
       </c>
-      <c r="E167" t="n">
-        <v>0.9735</v>
-      </c>
-      <c r="F167" t="n">
+      <c r="E167">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="F167">
         <v>4</v>
       </c>
       <c r="G167" t="s">
         <v>18</v>
       </c>
-      <c r="H167" s="2" t="n">
+      <c r="H167" s="2">
         <v>44259</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -4972,23 +4992,23 @@
       <c r="C168" t="s">
         <v>41</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>1430</v>
       </c>
-      <c r="E168" t="n">
-        <v>0.848785714285714</v>
-      </c>
-      <c r="F168" t="n">
+      <c r="E168">
+        <v>0.84878571428571403</v>
+      </c>
+      <c r="F168">
         <v>4</v>
       </c>
       <c r="G168" t="s">
         <v>18</v>
       </c>
-      <c r="H168" s="2" t="n">
+      <c r="H168" s="2">
         <v>44259</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -4998,23 +5018,23 @@
       <c r="C169" t="s">
         <v>41</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>1092</v>
       </c>
-      <c r="E169" t="n">
-        <v>0.974285714285714</v>
-      </c>
-      <c r="F169" t="n">
+      <c r="E169">
+        <v>0.97428571428571398</v>
+      </c>
+      <c r="F169">
         <v>4</v>
       </c>
       <c r="G169" t="s">
         <v>18</v>
       </c>
-      <c r="H169" s="2" t="n">
+      <c r="H169" s="2">
         <v>44259</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -5024,23 +5044,23 @@
       <c r="C170" t="s">
         <v>31</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>650</v>
       </c>
-      <c r="E170" t="n">
-        <v>0.9656</v>
-      </c>
-      <c r="F170" t="n">
+      <c r="E170">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="F170">
         <v>4</v>
       </c>
       <c r="G170" t="s">
         <v>11</v>
       </c>
-      <c r="H170" s="2" t="n">
+      <c r="H170" s="2">
         <v>44260</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -5050,23 +5070,23 @@
       <c r="C171" t="s">
         <v>31</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>650</v>
       </c>
-      <c r="E171" t="n">
-        <v>0.9334</v>
-      </c>
-      <c r="F171" t="n">
+      <c r="E171">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="F171">
         <v>4</v>
       </c>
       <c r="G171" t="s">
         <v>11</v>
       </c>
-      <c r="H171" s="2" t="n">
+      <c r="H171" s="2">
         <v>44260</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -5076,23 +5096,23 @@
       <c r="C172" t="s">
         <v>39</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>2509</v>
       </c>
-      <c r="E172" t="n">
-        <v>0.939523809523809</v>
-      </c>
-      <c r="F172" t="n">
+      <c r="E172">
+        <v>0.93952380952380898</v>
+      </c>
+      <c r="F172">
         <v>4</v>
       </c>
       <c r="G172" t="s">
         <v>11</v>
       </c>
-      <c r="H172" s="2" t="n">
+      <c r="H172" s="2">
         <v>44263</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -5102,23 +5122,23 @@
       <c r="C173" t="s">
         <v>67</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>2379</v>
       </c>
-      <c r="E173" t="n">
-        <v>0.905625</v>
-      </c>
-      <c r="F173" t="n">
+      <c r="E173">
+        <v>0.90562500000000001</v>
+      </c>
+      <c r="F173">
         <v>4</v>
       </c>
       <c r="G173" t="s">
         <v>18</v>
       </c>
-      <c r="H173" s="2" t="n">
+      <c r="H173" s="2">
         <v>44265</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -5128,23 +5148,23 @@
       <c r="C174" t="s">
         <v>37</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>11700</v>
       </c>
-      <c r="E174" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="F174" t="n">
+      <c r="E174">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F174">
         <v>4</v>
       </c>
       <c r="G174" t="s">
         <v>18</v>
       </c>
-      <c r="H174" s="2" t="n">
+      <c r="H174" s="2">
         <v>44265</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -5154,23 +5174,23 @@
       <c r="C175" t="s">
         <v>69</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>1664</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>0.9355</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175">
         <v>4</v>
       </c>
       <c r="G175" t="s">
         <v>11</v>
       </c>
-      <c r="H175" s="2" t="n">
+      <c r="H175" s="2">
         <v>44271</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -5180,23 +5200,23 @@
       <c r="C176" t="s">
         <v>74</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>4446</v>
       </c>
-      <c r="E176" t="n">
-        <v>0.955948275862069</v>
-      </c>
-      <c r="F176" t="n">
+      <c r="E176">
+        <v>0.95594827586206899</v>
+      </c>
+      <c r="F176">
         <v>4</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
       </c>
-      <c r="H176" s="2" t="n">
+      <c r="H176" s="2">
         <v>44271</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -5206,23 +5226,23 @@
       <c r="C177" t="s">
         <v>75</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>5330</v>
       </c>
-      <c r="E177" t="n">
-        <v>0.9404</v>
-      </c>
-      <c r="F177" t="n">
+      <c r="E177">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="F177">
         <v>4</v>
       </c>
       <c r="G177" t="s">
         <v>18</v>
       </c>
-      <c r="H177" s="2" t="n">
+      <c r="H177" s="2">
         <v>44273</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -5232,23 +5252,23 @@
       <c r="C178" t="s">
         <v>45</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>1703</v>
       </c>
-      <c r="E178" t="n">
-        <v>0.959074074074074</v>
-      </c>
-      <c r="F178" t="n">
+      <c r="E178">
+        <v>0.95907407407407397</v>
+      </c>
+      <c r="F178">
         <v>4</v>
       </c>
       <c r="G178" t="s">
         <v>11</v>
       </c>
-      <c r="H178" s="2" t="n">
+      <c r="H178" s="2">
         <v>44277</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -5258,23 +5278,23 @@
       <c r="C179" t="s">
         <v>39</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>1807</v>
       </c>
-      <c r="E179" t="n">
-        <v>0.945185185185185</v>
-      </c>
-      <c r="F179" t="n">
+      <c r="E179">
+        <v>0.94518518518518502</v>
+      </c>
+      <c r="F179">
         <v>4</v>
       </c>
       <c r="G179" t="s">
         <v>11</v>
       </c>
-      <c r="H179" s="2" t="n">
+      <c r="H179" s="2">
         <v>44277</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -5284,23 +5304,23 @@
       <c r="C180" t="s">
         <v>45</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>1703</v>
       </c>
-      <c r="E180" t="n">
-        <v>0.979814814814815</v>
-      </c>
-      <c r="F180" t="n">
+      <c r="E180">
+        <v>0.97981481481481503</v>
+      </c>
+      <c r="F180">
         <v>4</v>
       </c>
       <c r="G180" t="s">
         <v>11</v>
       </c>
-      <c r="H180" s="2" t="n">
+      <c r="H180" s="2">
         <v>44277</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -5310,23 +5330,23 @@
       <c r="C181" t="s">
         <v>34</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>6500</v>
       </c>
-      <c r="E181" t="n">
-        <v>0.995916666666667</v>
-      </c>
-      <c r="F181" t="n">
+      <c r="E181">
+        <v>0.99591666666666701</v>
+      </c>
+      <c r="F181">
         <v>4</v>
       </c>
       <c r="G181" t="s">
         <v>18</v>
       </c>
-      <c r="H181" s="2" t="n">
+      <c r="H181" s="2">
         <v>44277</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -5336,23 +5356,23 @@
       <c r="C182" t="s">
         <v>41</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>3328</v>
       </c>
-      <c r="E182" t="n">
-        <v>0.977428571428571</v>
-      </c>
-      <c r="F182" t="n">
+      <c r="E182">
+        <v>0.97742857142857098</v>
+      </c>
+      <c r="F182">
         <v>4</v>
       </c>
       <c r="G182" t="s">
         <v>18</v>
       </c>
-      <c r="H182" s="2" t="n">
+      <c r="H182" s="2">
         <v>44277</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -5362,23 +5382,23 @@
       <c r="C183" t="s">
         <v>41</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>5265</v>
       </c>
-      <c r="E183" t="n">
-        <v>0.956142857142857</v>
-      </c>
-      <c r="F183" t="n">
+      <c r="E183">
+        <v>0.95614285714285696</v>
+      </c>
+      <c r="F183">
         <v>4</v>
       </c>
       <c r="G183" t="s">
         <v>18</v>
       </c>
-      <c r="H183" s="2" t="n">
+      <c r="H183" s="2">
         <v>44277</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -5388,23 +5408,23 @@
       <c r="C184" t="s">
         <v>31</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>4550</v>
       </c>
-      <c r="E184" t="n">
-        <v>0.944907407407407</v>
-      </c>
-      <c r="F184" t="n">
+      <c r="E184">
+        <v>0.94490740740740697</v>
+      </c>
+      <c r="F184">
         <v>4</v>
       </c>
       <c r="G184" t="s">
         <v>18</v>
       </c>
-      <c r="H184" s="2" t="n">
+      <c r="H184" s="2">
         <v>44277</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -5414,23 +5434,23 @@
       <c r="C185" t="s">
         <v>49</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>4771</v>
       </c>
-      <c r="E185" t="n">
-        <v>0.960535714285714</v>
-      </c>
-      <c r="F185" t="n">
+      <c r="E185">
+        <v>0.96053571428571405</v>
+      </c>
+      <c r="F185">
         <v>4</v>
       </c>
       <c r="G185" t="s">
         <v>18</v>
       </c>
-      <c r="H185" s="2" t="n">
+      <c r="H185" s="2">
         <v>44277</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -5440,23 +5460,23 @@
       <c r="C186" t="s">
         <v>37</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>32500</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>0.96375</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186">
         <v>4</v>
       </c>
       <c r="G186" t="s">
         <v>14</v>
       </c>
-      <c r="H186" s="2" t="n">
+      <c r="H186" s="2">
         <v>44281</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -5466,23 +5486,23 @@
       <c r="C187" t="s">
         <v>39</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>1833</v>
       </c>
-      <c r="E187" t="n">
-        <v>0.924146341463415</v>
-      </c>
-      <c r="F187" t="n">
+      <c r="E187">
+        <v>0.92414634146341501</v>
+      </c>
+      <c r="F187">
         <v>4</v>
       </c>
       <c r="G187" t="s">
         <v>11</v>
       </c>
-      <c r="H187" s="2" t="n">
+      <c r="H187" s="2">
         <v>44284</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -5492,23 +5512,23 @@
       <c r="C188" t="s">
         <v>39</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>3055</v>
       </c>
-      <c r="E188" t="n">
-        <v>0.991944444444444</v>
-      </c>
-      <c r="F188" t="n">
+      <c r="E188">
+        <v>0.99194444444444396</v>
+      </c>
+      <c r="F188">
         <v>4</v>
       </c>
       <c r="G188" t="s">
         <v>11</v>
       </c>
-      <c r="H188" s="2" t="n">
+      <c r="H188" s="2">
         <v>44284</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -5518,23 +5538,23 @@
       <c r="C189" t="s">
         <v>39</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>403</v>
       </c>
-      <c r="E189" t="n">
-        <v>1.14574074074074</v>
-      </c>
-      <c r="F189" t="n">
+      <c r="E189">
+        <v>1.1457407407407401</v>
+      </c>
+      <c r="F189">
         <v>4</v>
       </c>
       <c r="G189" t="s">
         <v>11</v>
       </c>
-      <c r="H189" s="2" t="n">
+      <c r="H189" s="2">
         <v>44284</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -5544,23 +5564,23 @@
       <c r="C190" t="s">
         <v>59</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>3250</v>
       </c>
-      <c r="E190" t="n">
-        <v>0.951458333333333</v>
-      </c>
-      <c r="F190" t="n">
+      <c r="E190">
+        <v>0.95145833333333296</v>
+      </c>
+      <c r="F190">
         <v>4</v>
       </c>
       <c r="G190" t="s">
         <v>18</v>
       </c>
-      <c r="H190" s="2" t="n">
+      <c r="H190" s="2">
         <v>44287</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -5570,23 +5590,23 @@
       <c r="C191" t="s">
         <v>29</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>6266</v>
       </c>
-      <c r="E191" t="n">
-        <v>0.943796296296296</v>
-      </c>
-      <c r="F191" t="n">
+      <c r="E191">
+        <v>0.94379629629629602</v>
+      </c>
+      <c r="F191">
         <v>4</v>
       </c>
       <c r="G191" t="s">
         <v>18</v>
       </c>
-      <c r="H191" s="2" t="n">
+      <c r="H191" s="2">
         <v>44287</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -5596,23 +5616,23 @@
       <c r="C192" t="s">
         <v>46</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>4062.5</v>
       </c>
-      <c r="E192" t="n">
-        <v>0.953011363636364</v>
-      </c>
-      <c r="F192" t="n">
+      <c r="E192">
+        <v>0.95301136363636396</v>
+      </c>
+      <c r="F192">
         <v>4</v>
       </c>
       <c r="G192" t="s">
         <v>52</v>
       </c>
-      <c r="H192" s="2" t="n">
+      <c r="H192" s="2">
         <v>44288</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -5622,23 +5642,23 @@
       <c r="C193" t="s">
         <v>45</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>3185</v>
       </c>
-      <c r="E193" t="n">
-        <v>0.946018518518519</v>
-      </c>
-      <c r="F193" t="n">
+      <c r="E193">
+        <v>0.94601851851851904</v>
+      </c>
+      <c r="F193">
         <v>4</v>
       </c>
       <c r="G193" t="s">
         <v>11</v>
       </c>
-      <c r="H193" s="2" t="n">
+      <c r="H193" s="2">
         <v>44289</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -5648,23 +5668,23 @@
       <c r="C194" t="s">
         <v>39</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>1924</v>
       </c>
-      <c r="E194" t="n">
-        <v>0.97140243902439</v>
-      </c>
-      <c r="F194" t="n">
+      <c r="E194">
+        <v>0.97140243902439005</v>
+      </c>
+      <c r="F194">
         <v>4</v>
       </c>
       <c r="G194" t="s">
         <v>11</v>
       </c>
-      <c r="H194" s="2" t="n">
+      <c r="H194" s="2">
         <v>44289</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -5674,23 +5694,23 @@
       <c r="C195" t="s">
         <v>75</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>1417</v>
       </c>
-      <c r="E195" t="n">
-        <v>0.97565</v>
-      </c>
-      <c r="F195" t="n">
+      <c r="E195">
+        <v>0.97565000000000002</v>
+      </c>
+      <c r="F195">
         <v>4</v>
       </c>
       <c r="G195" t="s">
         <v>11</v>
       </c>
-      <c r="H195" s="2" t="n">
+      <c r="H195" s="2">
         <v>44297</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -5700,23 +5720,23 @@
       <c r="C196" t="s">
         <v>74</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>5616</v>
       </c>
-      <c r="E196" t="n">
-        <v>0.963793103448276</v>
-      </c>
-      <c r="F196" t="n">
+      <c r="E196">
+        <v>0.96379310344827596</v>
+      </c>
+      <c r="F196">
         <v>4</v>
       </c>
       <c r="G196" t="s">
         <v>11</v>
       </c>
-      <c r="H196" s="2" t="n">
+      <c r="H196" s="2">
         <v>44297</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -5726,23 +5746,23 @@
       <c r="C197" t="s">
         <v>49</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>8937.5</v>
       </c>
-      <c r="E197" t="n">
-        <v>0.917166666666667</v>
-      </c>
-      <c r="F197" t="n">
+      <c r="E197">
+        <v>0.91716666666666702</v>
+      </c>
+      <c r="F197">
         <v>4</v>
       </c>
       <c r="G197" t="s">
         <v>14</v>
       </c>
-      <c r="H197" s="2" t="n">
+      <c r="H197" s="2">
         <v>44297</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -5752,23 +5772,23 @@
       <c r="C198" t="s">
         <v>76</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>23562.5</v>
       </c>
-      <c r="E198" t="n">
-        <v>0.963833333333333</v>
-      </c>
-      <c r="F198" t="n">
+      <c r="E198">
+        <v>0.96383333333333299</v>
+      </c>
+      <c r="F198">
         <v>4</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
       </c>
-      <c r="H198" s="2" t="n">
+      <c r="H198" s="2">
         <v>44297</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -5778,23 +5798,23 @@
       <c r="C199" t="s">
         <v>37</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>6500</v>
       </c>
-      <c r="E199" t="n">
-        <v>0.916111111111111</v>
-      </c>
-      <c r="F199" t="n">
+      <c r="E199">
+        <v>0.91611111111111099</v>
+      </c>
+      <c r="F199">
         <v>4</v>
       </c>
       <c r="G199" t="s">
         <v>18</v>
       </c>
-      <c r="H199" s="2" t="n">
+      <c r="H199" s="2">
         <v>44301</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -5804,23 +5824,23 @@
       <c r="C200" t="s">
         <v>41</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>780</v>
       </c>
-      <c r="E200" t="n">
-        <v>0.992226890756303</v>
-      </c>
-      <c r="F200" t="n">
+      <c r="E200">
+        <v>0.99222689075630299</v>
+      </c>
+      <c r="F200">
         <v>4</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
       </c>
-      <c r="H200" s="2" t="n">
+      <c r="H200" s="2">
         <v>44304</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -5830,23 +5850,23 @@
       <c r="C201" t="s">
         <v>45</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>1859</v>
       </c>
-      <c r="E201" t="n">
-        <v>0.987578125</v>
-      </c>
-      <c r="F201" t="n">
+      <c r="E201">
+        <v>0.98757812499999997</v>
+      </c>
+      <c r="F201">
         <v>4</v>
       </c>
       <c r="G201" t="s">
         <v>11</v>
       </c>
-      <c r="H201" s="2" t="n">
+      <c r="H201" s="2">
         <v>44304</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -5856,23 +5876,23 @@
       <c r="C202" t="s">
         <v>39</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>1677</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>0.986759259259259</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F202">
         <v>4</v>
       </c>
       <c r="G202" t="s">
         <v>11</v>
       </c>
-      <c r="H202" s="2" t="n">
+      <c r="H202" s="2">
         <v>44304</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -5882,23 +5902,23 @@
       <c r="C203" t="s">
         <v>41</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>1300</v>
       </c>
-      <c r="E203" t="n">
-        <v>0.985854341736695</v>
-      </c>
-      <c r="F203" t="n">
+      <c r="E203">
+        <v>0.98585434173669495</v>
+      </c>
+      <c r="F203">
         <v>4</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
       </c>
-      <c r="H203" s="2" t="n">
+      <c r="H203" s="2">
         <v>44304</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -5908,23 +5928,23 @@
       <c r="C204" t="s">
         <v>37</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>7800</v>
       </c>
-      <c r="E204" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="F204" t="n">
+      <c r="E204">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F204">
         <v>4</v>
       </c>
       <c r="G204" t="s">
         <v>18</v>
       </c>
-      <c r="H204" s="2" t="n">
+      <c r="H204" s="2">
         <v>44309</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -5934,23 +5954,23 @@
       <c r="C205" t="s">
         <v>20</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>5281.25</v>
       </c>
-      <c r="E205" t="n">
-        <v>0.979814814814815</v>
-      </c>
-      <c r="F205" t="n">
+      <c r="E205">
+        <v>0.97981481481481503</v>
+      </c>
+      <c r="F205">
         <v>4</v>
       </c>
       <c r="G205" t="s">
         <v>18</v>
       </c>
-      <c r="H205" s="2" t="n">
+      <c r="H205" s="2">
         <v>44309</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -5960,23 +5980,23 @@
       <c r="C206" t="s">
         <v>77</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>7605</v>
       </c>
-      <c r="E206" t="n">
-        <v>0.985925925925926</v>
-      </c>
-      <c r="F206" t="n">
+      <c r="E206">
+        <v>0.98592592592592598</v>
+      </c>
+      <c r="F206">
         <v>4</v>
       </c>
       <c r="G206" t="s">
         <v>18</v>
       </c>
-      <c r="H206" s="2" t="n">
+      <c r="H206" s="2">
         <v>44309</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -5986,23 +6006,23 @@
       <c r="C207" t="s">
         <v>69</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>3341</v>
       </c>
-      <c r="E207" t="n">
-        <v>0.958977272727273</v>
-      </c>
-      <c r="F207" t="n">
+      <c r="E207">
+        <v>0.95897727272727296</v>
+      </c>
+      <c r="F207">
         <v>4</v>
       </c>
       <c r="G207" t="s">
         <v>11</v>
       </c>
-      <c r="H207" s="2" t="n">
+      <c r="H207" s="2">
         <v>44312</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -6012,23 +6032,23 @@
       <c r="C208" t="s">
         <v>39</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>1599</v>
       </c>
-      <c r="E208" t="n">
-        <v>0.979351851851852</v>
-      </c>
-      <c r="F208" t="n">
+      <c r="E208">
+        <v>0.97935185185185203</v>
+      </c>
+      <c r="F208">
         <v>4</v>
       </c>
       <c r="G208" t="s">
         <v>11</v>
       </c>
-      <c r="H208" s="2" t="n">
+      <c r="H208" s="2">
         <v>44313</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -6038,23 +6058,23 @@
       <c r="C209" t="s">
         <v>39</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>1690</v>
       </c>
-      <c r="E209" t="n">
-        <v>0.935462962962963</v>
-      </c>
-      <c r="F209" t="n">
+      <c r="E209">
+        <v>0.93546296296296305</v>
+      </c>
+      <c r="F209">
         <v>4</v>
       </c>
       <c r="G209" t="s">
         <v>11</v>
       </c>
-      <c r="H209" s="2" t="n">
+      <c r="H209" s="2">
         <v>44313</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -6064,23 +6084,23 @@
       <c r="C210" t="s">
         <v>23</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>5200</v>
       </c>
-      <c r="E210" t="n">
-        <v>0.984038901601831</v>
-      </c>
-      <c r="F210" t="n">
+      <c r="E210">
+        <v>0.98403890160183105</v>
+      </c>
+      <c r="F210">
         <v>4</v>
       </c>
       <c r="G210" t="s">
         <v>52</v>
       </c>
-      <c r="H210" s="2" t="n">
+      <c r="H210" s="2">
         <v>44316</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -6090,23 +6110,23 @@
       <c r="C211" t="s">
         <v>37</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>9100</v>
       </c>
-      <c r="E211" t="n">
-        <v>0.97875</v>
-      </c>
-      <c r="F211" t="n">
+      <c r="E211">
+        <v>0.97875000000000001</v>
+      </c>
+      <c r="F211">
         <v>4</v>
       </c>
       <c r="G211" t="s">
         <v>18</v>
       </c>
-      <c r="H211" s="2" t="n">
+      <c r="H211" s="2">
         <v>44317</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -6116,23 +6136,23 @@
       <c r="C212" t="s">
         <v>34</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>9750</v>
       </c>
-      <c r="E212" t="n">
-        <v>0.951416666666666</v>
-      </c>
-      <c r="F212" t="n">
+      <c r="E212">
+        <v>0.95141666666666602</v>
+      </c>
+      <c r="F212">
         <v>4</v>
       </c>
       <c r="G212" t="s">
         <v>18</v>
       </c>
-      <c r="H212" s="2" t="n">
+      <c r="H212" s="2">
         <v>44317</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -6142,23 +6162,23 @@
       <c r="C213" t="s">
         <v>59</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>4680</v>
       </c>
-      <c r="E213" t="n">
-        <v>0.9743</v>
-      </c>
-      <c r="F213" t="n">
+      <c r="E213">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="F213">
         <v>4</v>
       </c>
       <c r="G213" t="s">
         <v>18</v>
       </c>
-      <c r="H213" s="2" t="n">
+      <c r="H213" s="2">
         <v>44317</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -6168,23 +6188,23 @@
       <c r="C214" t="s">
         <v>59</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>1729</v>
       </c>
-      <c r="E214" t="n">
-        <v>0.944340659340659</v>
-      </c>
-      <c r="F214" t="n">
+      <c r="E214">
+        <v>0.94434065934065903</v>
+      </c>
+      <c r="F214">
         <v>4</v>
       </c>
       <c r="G214" t="s">
         <v>11</v>
       </c>
-      <c r="H214" s="2" t="n">
+      <c r="H214" s="2">
         <v>44318</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -6194,23 +6214,23 @@
       <c r="C215" t="s">
         <v>39</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>520</v>
       </c>
-      <c r="E215" t="n">
-        <v>0.958958333333333</v>
-      </c>
-      <c r="F215" t="n">
+      <c r="E215">
+        <v>0.95895833333333302</v>
+      </c>
+      <c r="F215">
         <v>4</v>
       </c>
       <c r="G215" t="s">
         <v>11</v>
       </c>
-      <c r="H215" s="2" t="n">
+      <c r="H215" s="2">
         <v>44318</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -6220,23 +6240,23 @@
       <c r="C216" t="s">
         <v>46</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>2843.75</v>
       </c>
-      <c r="E216" t="n">
-        <v>0.930897435897436</v>
-      </c>
-      <c r="F216" t="n">
+      <c r="E216">
+        <v>0.93089743589743601</v>
+      </c>
+      <c r="F216">
         <v>4</v>
       </c>
       <c r="G216" t="s">
         <v>52</v>
       </c>
-      <c r="H216" s="2" t="n">
+      <c r="H216" s="2">
         <v>44324</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>24</v>
       </c>
@@ -6246,23 +6266,23 @@
       <c r="C217" t="s">
         <v>31</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>3900</v>
       </c>
-      <c r="E217" t="n">
-        <v>0.598425925925926</v>
-      </c>
-      <c r="F217" t="n">
+      <c r="E217">
+        <v>0.59842592592592603</v>
+      </c>
+      <c r="F217">
         <v>4</v>
       </c>
       <c r="G217" t="s">
         <v>18</v>
       </c>
-      <c r="H217" s="2" t="n">
+      <c r="H217" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -6272,23 +6292,23 @@
       <c r="C218" t="s">
         <v>59</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>5330</v>
       </c>
-      <c r="E218" t="n">
-        <v>0.96795</v>
-      </c>
-      <c r="F218" t="n">
+      <c r="E218">
+        <v>0.96794999999999998</v>
+      </c>
+      <c r="F218">
         <v>4</v>
       </c>
       <c r="G218" t="s">
         <v>18</v>
       </c>
-      <c r="H218" s="2" t="n">
+      <c r="H218" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -6298,23 +6318,23 @@
       <c r="C219" t="s">
         <v>31</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>4680</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219">
         <v>0.632314814814815</v>
       </c>
-      <c r="F219" t="n">
+      <c r="F219">
         <v>4</v>
       </c>
       <c r="G219" t="s">
         <v>18</v>
       </c>
-      <c r="H219" s="2" t="n">
+      <c r="H219" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -6324,23 +6344,23 @@
       <c r="C220" t="s">
         <v>78</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>4108</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220">
         <v>0.956203703703704</v>
       </c>
-      <c r="F220" t="n">
+      <c r="F220">
         <v>4</v>
       </c>
       <c r="G220" t="s">
         <v>18</v>
       </c>
-      <c r="H220" s="2" t="n">
+      <c r="H220" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -6350,23 +6370,23 @@
       <c r="C221" t="s">
         <v>31</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>3900</v>
       </c>
-      <c r="E221" t="n">
-        <v>0.870185185185185</v>
-      </c>
-      <c r="F221" t="n">
+      <c r="E221">
+        <v>0.87018518518518495</v>
+      </c>
+      <c r="F221">
         <v>4</v>
       </c>
       <c r="G221" t="s">
         <v>18</v>
       </c>
-      <c r="H221" s="2" t="n">
+      <c r="H221" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -6376,23 +6396,23 @@
       <c r="C222" t="s">
         <v>31</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>4680</v>
       </c>
-      <c r="E222" t="n">
-        <v>0.942685185185185</v>
-      </c>
-      <c r="F222" t="n">
+      <c r="E222">
+        <v>0.94268518518518496</v>
+      </c>
+      <c r="F222">
         <v>4</v>
       </c>
       <c r="G222" t="s">
         <v>18</v>
       </c>
-      <c r="H222" s="2" t="n">
+      <c r="H222" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>32</v>
       </c>
@@ -6402,21 +6422,20 @@
       <c r="C223" t="s">
         <v>31</v>
       </c>
-      <c r="D223"/>
-      <c r="E223" t="n">
-        <v>0.647037037037037</v>
-      </c>
-      <c r="F223" t="n">
+      <c r="E223">
+        <v>0.64703703703703697</v>
+      </c>
+      <c r="F223">
         <v>1</v>
       </c>
       <c r="G223" t="s">
         <v>18</v>
       </c>
-      <c r="H223" s="2" t="n">
+      <c r="H223" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -6426,21 +6445,20 @@
       <c r="C224" t="s">
         <v>31</v>
       </c>
-      <c r="D224"/>
-      <c r="E224" t="n">
-        <v>0.67962962962963</v>
-      </c>
-      <c r="F224" t="n">
+      <c r="E224">
+        <v>0.67962962962963003</v>
+      </c>
+      <c r="F224">
         <v>1</v>
       </c>
       <c r="G224" t="s">
         <v>18</v>
       </c>
-      <c r="H224" s="2" t="n">
+      <c r="H224" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>32</v>
       </c>
@@ -6450,21 +6468,20 @@
       <c r="C225" t="s">
         <v>31</v>
       </c>
-      <c r="D225"/>
-      <c r="E225" t="n">
-        <v>0.884444444444444</v>
-      </c>
-      <c r="F225" t="n">
+      <c r="E225">
+        <v>0.88444444444444403</v>
+      </c>
+      <c r="F225">
         <v>1</v>
       </c>
       <c r="G225" t="s">
         <v>18</v>
       </c>
-      <c r="H225" s="2" t="n">
+      <c r="H225" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -6474,21 +6491,20 @@
       <c r="C226" t="s">
         <v>31</v>
       </c>
-      <c r="D226"/>
-      <c r="E226" t="n">
-        <v>0.894074074074074</v>
-      </c>
-      <c r="F226" t="n">
+      <c r="E226">
+        <v>0.89407407407407402</v>
+      </c>
+      <c r="F226">
         <v>1</v>
       </c>
       <c r="G226" t="s">
         <v>18</v>
       </c>
-      <c r="H226" s="2" t="n">
+      <c r="H226" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>32</v>
       </c>
@@ -6498,21 +6514,20 @@
       <c r="C227" t="s">
         <v>31</v>
       </c>
-      <c r="D227"/>
-      <c r="E227" t="n">
-        <v>0.937407407407407</v>
-      </c>
-      <c r="F227" t="n">
+      <c r="E227">
+        <v>0.93740740740740702</v>
+      </c>
+      <c r="F227">
         <v>1</v>
       </c>
       <c r="G227" t="s">
         <v>18</v>
       </c>
-      <c r="H227" s="2" t="n">
+      <c r="H227" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>32</v>
       </c>
@@ -6522,21 +6537,20 @@
       <c r="C228" t="s">
         <v>31</v>
       </c>
-      <c r="D228"/>
-      <c r="E228" t="n">
-        <v>0.903333333333333</v>
-      </c>
-      <c r="F228" t="n">
+      <c r="E228">
+        <v>0.90333333333333299</v>
+      </c>
+      <c r="F228">
         <v>1</v>
       </c>
       <c r="G228" t="s">
         <v>18</v>
       </c>
-      <c r="H228" s="2" t="n">
+      <c r="H228" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>32</v>
       </c>
@@ -6546,21 +6560,20 @@
       <c r="C229" t="s">
         <v>31</v>
       </c>
-      <c r="D229"/>
-      <c r="E229" t="n">
+      <c r="E229">
         <v>0.9</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F229">
         <v>1</v>
       </c>
       <c r="G229" t="s">
         <v>18</v>
       </c>
-      <c r="H229" s="2" t="n">
+      <c r="H229" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>32</v>
       </c>
@@ -6570,21 +6583,20 @@
       <c r="C230" t="s">
         <v>31</v>
       </c>
-      <c r="D230"/>
-      <c r="E230" t="n">
-        <v>0.963703703703704</v>
-      </c>
-      <c r="F230" t="n">
+      <c r="E230">
+        <v>0.96370370370370395</v>
+      </c>
+      <c r="F230">
         <v>1</v>
       </c>
       <c r="G230" t="s">
         <v>18</v>
       </c>
-      <c r="H230" s="2" t="n">
+      <c r="H230" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>32</v>
       </c>
@@ -6594,21 +6606,20 @@
       <c r="C231" t="s">
         <v>31</v>
       </c>
-      <c r="D231"/>
-      <c r="E231" t="n">
-        <v>0.975925925925926</v>
-      </c>
-      <c r="F231" t="n">
+      <c r="E231">
+        <v>0.97592592592592597</v>
+      </c>
+      <c r="F231">
         <v>1</v>
       </c>
       <c r="G231" t="s">
         <v>18</v>
       </c>
-      <c r="H231" s="2" t="n">
+      <c r="H231" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>32</v>
       </c>
@@ -6618,21 +6629,20 @@
       <c r="C232" t="s">
         <v>31</v>
       </c>
-      <c r="D232"/>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>0.982222222222222</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232">
         <v>1</v>
       </c>
       <c r="G232" t="s">
         <v>18</v>
       </c>
-      <c r="H232" s="2" t="n">
+      <c r="H232" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>32</v>
       </c>
@@ -6642,21 +6652,20 @@
       <c r="C233" t="s">
         <v>31</v>
       </c>
-      <c r="D233"/>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>1.00185185185185</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233">
         <v>1</v>
       </c>
       <c r="G233" t="s">
         <v>18</v>
       </c>
-      <c r="H233" s="2" t="n">
+      <c r="H233" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>32</v>
       </c>
@@ -6666,21 +6675,20 @@
       <c r="C234" t="s">
         <v>31</v>
       </c>
-      <c r="D234"/>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>0.881851851851852</v>
       </c>
-      <c r="F234" t="n">
+      <c r="F234">
         <v>1</v>
       </c>
       <c r="G234" t="s">
         <v>18</v>
       </c>
-      <c r="H234" s="2" t="n">
+      <c r="H234" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>32</v>
       </c>
@@ -6690,21 +6698,20 @@
       <c r="C235" t="s">
         <v>31</v>
       </c>
-      <c r="D235"/>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>0.89962962962963</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235">
         <v>1</v>
       </c>
       <c r="G235" t="s">
         <v>18</v>
       </c>
-      <c r="H235" s="2" t="n">
+      <c r="H235" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>32</v>
       </c>
@@ -6714,21 +6721,20 @@
       <c r="C236" t="s">
         <v>31</v>
       </c>
-      <c r="D236"/>
-      <c r="E236" t="n">
-        <v>0.903851851851852</v>
-      </c>
-      <c r="F236" t="n">
+      <c r="E236">
+        <v>0.90385185185185202</v>
+      </c>
+      <c r="F236">
         <v>5</v>
       </c>
       <c r="G236" t="s">
         <v>18</v>
       </c>
-      <c r="H236" s="2" t="n">
+      <c r="H236" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>32</v>
       </c>
@@ -6738,21 +6744,20 @@
       <c r="C237" t="s">
         <v>31</v>
       </c>
-      <c r="D237"/>
-      <c r="E237" t="n">
-        <v>0.950864197530864</v>
-      </c>
-      <c r="F237" t="n">
+      <c r="E237">
+        <v>0.95086419753086404</v>
+      </c>
+      <c r="F237">
         <v>6</v>
       </c>
       <c r="G237" t="s">
         <v>18</v>
       </c>
-      <c r="H237" s="2" t="n">
+      <c r="H237" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -6762,23 +6767,23 @@
       <c r="C238" t="s">
         <v>51</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>845</v>
       </c>
-      <c r="E238" t="n">
-        <v>0.897745901639344</v>
-      </c>
-      <c r="F238" t="n">
+      <c r="E238">
+        <v>0.89774590163934398</v>
+      </c>
+      <c r="F238">
         <v>4</v>
       </c>
       <c r="G238" t="s">
         <v>52</v>
       </c>
-      <c r="H238" s="2" t="n">
+      <c r="H238" s="2">
         <v>44330</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -6788,23 +6793,23 @@
       <c r="C239" t="s">
         <v>79</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>3029</v>
       </c>
-      <c r="E239" t="n">
-        <v>0.921447368421053</v>
-      </c>
-      <c r="F239" t="n">
+      <c r="E239">
+        <v>0.92144736842105301</v>
+      </c>
+      <c r="F239">
         <v>4</v>
       </c>
       <c r="G239" t="s">
         <v>11</v>
       </c>
-      <c r="H239" s="2" t="n">
+      <c r="H239" s="2">
         <v>44331</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -6814,23 +6819,23 @@
       <c r="C240" t="s">
         <v>13</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>19500</v>
       </c>
-      <c r="E240" t="n">
-        <v>0.927583333333333</v>
-      </c>
-      <c r="F240" t="n">
+      <c r="E240">
+        <v>0.92758333333333298</v>
+      </c>
+      <c r="F240">
         <v>4</v>
       </c>
       <c r="G240" t="s">
         <v>14</v>
       </c>
-      <c r="H240" s="2" t="n">
+      <c r="H240" s="2">
         <v>44331</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -6840,23 +6845,23 @@
       <c r="C241" t="s">
         <v>80</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>6500</v>
       </c>
-      <c r="E241" t="n">
-        <v>0.926</v>
-      </c>
-      <c r="F241" t="n">
+      <c r="E241">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F241">
         <v>4</v>
       </c>
       <c r="G241" t="s">
         <v>14</v>
       </c>
-      <c r="H241" s="2" t="n">
+      <c r="H241" s="2">
         <v>44331</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -6866,23 +6871,23 @@
       <c r="C242" t="s">
         <v>81</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>6500</v>
       </c>
-      <c r="E242" t="n">
-        <v>0.873583333333333</v>
-      </c>
-      <c r="F242" t="n">
+      <c r="E242">
+        <v>0.87358333333333305</v>
+      </c>
+      <c r="F242">
         <v>4</v>
       </c>
       <c r="G242" t="s">
         <v>14</v>
       </c>
-      <c r="H242" s="2" t="n">
+      <c r="H242" s="2">
         <v>44331</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -6892,23 +6897,23 @@
       <c r="C243" t="s">
         <v>28</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>5135</v>
       </c>
-      <c r="E243" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="F243" t="n">
+      <c r="E243">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F243">
         <v>4</v>
       </c>
       <c r="G243" t="s">
         <v>18</v>
       </c>
-      <c r="H243" s="2" t="n">
+      <c r="H243" s="2">
         <v>44340</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -6918,23 +6923,23 @@
       <c r="C244" t="s">
         <v>82</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>2223</v>
       </c>
-      <c r="E244" t="n">
-        <v>0.9755</v>
-      </c>
-      <c r="F244" t="n">
+      <c r="E244">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="F244">
         <v>4</v>
       </c>
       <c r="G244" t="s">
         <v>18</v>
       </c>
-      <c r="H244" s="2" t="n">
+      <c r="H244" s="2">
         <v>44340</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -6944,23 +6949,23 @@
       <c r="C245" t="s">
         <v>39</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>1313</v>
       </c>
-      <c r="E245" t="n">
-        <v>0.9575</v>
-      </c>
-      <c r="F245" t="n">
+      <c r="E245">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="F245">
         <v>4</v>
       </c>
       <c r="G245" t="s">
         <v>11</v>
       </c>
-      <c r="H245" s="2" t="n">
+      <c r="H245" s="2">
         <v>44341</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -6970,23 +6975,23 @@
       <c r="C246" t="s">
         <v>39</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>1794</v>
       </c>
-      <c r="E246" t="n">
-        <v>0.926158536585366</v>
-      </c>
-      <c r="F246" t="n">
+      <c r="E246">
+        <v>0.92615853658536595</v>
+      </c>
+      <c r="F246">
         <v>4</v>
       </c>
       <c r="G246" t="s">
         <v>11</v>
       </c>
-      <c r="H246" s="2" t="n">
+      <c r="H246" s="2">
         <v>44341</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -6996,23 +7001,23 @@
       <c r="C247" t="s">
         <v>10</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>351</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E247">
         <v>1.01192857142857</v>
       </c>
-      <c r="F247" t="n">
+      <c r="F247">
         <v>4</v>
       </c>
       <c r="G247" t="s">
         <v>11</v>
       </c>
-      <c r="H247" s="2" t="n">
+      <c r="H247" s="2">
         <v>44347</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -7022,23 +7027,23 @@
       <c r="C248" t="s">
         <v>10</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>195</v>
       </c>
-      <c r="E248" t="n">
-        <v>0.934142857142857</v>
-      </c>
-      <c r="F248" t="n">
+      <c r="E248">
+        <v>0.93414285714285705</v>
+      </c>
+      <c r="F248">
         <v>4</v>
       </c>
       <c r="G248" t="s">
         <v>11</v>
       </c>
-      <c r="H248" s="2" t="n">
+      <c r="H248" s="2">
         <v>44347</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -7048,23 +7053,23 @@
       <c r="C249" t="s">
         <v>37</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>1820</v>
       </c>
-      <c r="E249" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="F249" t="n">
+      <c r="E249">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F249">
         <v>4</v>
       </c>
       <c r="G249" t="s">
         <v>18</v>
       </c>
-      <c r="H249" s="2" t="n">
+      <c r="H249" s="2">
         <v>44351</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -7074,23 +7079,23 @@
       <c r="C250" t="s">
         <v>25</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>7280</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E250">
         <v>0.968981481481481</v>
       </c>
-      <c r="F250" t="n">
+      <c r="F250">
         <v>4</v>
       </c>
       <c r="G250" t="s">
         <v>18</v>
       </c>
-      <c r="H250" s="2" t="n">
+      <c r="H250" s="2">
         <v>44351</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -7100,23 +7105,23 @@
       <c r="C251" t="s">
         <v>40</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>7020</v>
       </c>
-      <c r="E251" t="n">
-        <v>0.95462962962963</v>
-      </c>
-      <c r="F251" t="n">
+      <c r="E251">
+        <v>0.95462962962963005</v>
+      </c>
+      <c r="F251">
         <v>4</v>
       </c>
       <c r="G251" t="s">
         <v>18</v>
       </c>
-      <c r="H251" s="2" t="n">
+      <c r="H251" s="2">
         <v>44351</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -7126,48 +7131,47 @@
       <c r="C252" t="s">
         <v>37</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>3250</v>
       </c>
-      <c r="E252" t="n">
-        <v>0.962428571428572</v>
-      </c>
-      <c r="F252" t="n">
+      <c r="E252">
+        <v>0.96242857142857197</v>
+      </c>
+      <c r="F252">
         <v>4</v>
       </c>
       <c r="G252" t="s">
         <v>11</v>
       </c>
-      <c r="H252" s="2" t="n">
+      <c r="H252" s="2">
         <v>44357</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253"/>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>38</v>
       </c>
       <c r="C253" t="s">
         <v>39</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>1586</v>
       </c>
-      <c r="E253" t="n">
-        <v>0.963170731707317</v>
-      </c>
-      <c r="F253" t="n">
+      <c r="E253">
+        <v>0.96317073170731704</v>
+      </c>
+      <c r="F253">
         <v>4</v>
       </c>
       <c r="G253" t="s">
         <v>11</v>
       </c>
-      <c r="H253" s="2" t="n">
+      <c r="H253" s="2">
         <v>44357</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>